--- a/Algoritmo_Rota/Planilhas_Unitario/A_Estrela_Euclidiano/PLN_42_25.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/A_Estrela_Euclidiano/PLN_42_25.xlsx
@@ -454,7 +454,7 @@
         <v>5815</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1119937896728516</v>
+        <v>0.1164326667785645</v>
       </c>
     </row>
   </sheetData>
